--- a/1.Domain/App.Domain/Excels/User.xlsx
+++ b/1.Domain/App.Domain/Excels/User.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK12\TTSS\fishprevention\1.Domain\App.Domain\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK12\TTSS\UniversalSpacecraftRepairManagementSystem\1.Domain\App.Domain\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FE4170-F963-409C-8D67-A0136E030F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44241190-525F-46EF-B727-031397ADBF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Column Name</t>
   </si>
@@ -118,15 +118,6 @@
     <t>รหัสผ่าน</t>
   </si>
   <si>
-    <t>isAdmin</t>
-  </si>
-  <si>
-    <t>isWorker</t>
-  </si>
-  <si>
-    <t>isResearcher</t>
-  </si>
-  <si>
     <t>bool?</t>
   </si>
   <si>
@@ -136,10 +127,25 @@
     <t>เป็น Admin</t>
   </si>
   <si>
-    <t>เป็น เจ้าหน้าที่ภาคสนาม</t>
-  </si>
-  <si>
-    <t>เป็น นักวิจัย</t>
+    <t>isTechnician</t>
+  </si>
+  <si>
+    <t>isAdministrator</t>
+  </si>
+  <si>
+    <t>isInventoryManager</t>
+  </si>
+  <si>
+    <t>isCustomerService</t>
+  </si>
+  <si>
+    <t>เป็น ผู้ดูแลลูกค้า</t>
+  </si>
+  <si>
+    <t>เป็น ช่างซ่อม</t>
+  </si>
+  <si>
+    <t>เป็น ผู้จัดการคลังสินค้า</t>
   </si>
 </sst>
 </file>
@@ -203,20 +209,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -233,10 +310,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="202020"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -491,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -756,16 +833,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>37</v>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
@@ -774,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>15</v>
@@ -782,16 +859,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>38</v>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="J9" s="2">
         <v>5</v>
@@ -800,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="L9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>15</v>
@@ -808,16 +885,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="J10" s="2">
         <v>5</v>
@@ -826,9 +903,35 @@
         <v>3</v>
       </c>
       <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5">
         <v>4</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="L11" s="5">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
